--- a/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T17:23:19+00:00</t>
+    <t>2023-10-30T11:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T16:48:54+00:00</t>
+    <t>2023-10-31T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:02:35+00:00</t>
+    <t>2023-10-31T17:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -821,7 +821,7 @@
     <t>ECLAIRELabelR5</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai</t>
+    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai. Cette extension implemente l'élément label de R5 https://hl7.org/fhir/researchstudy-definitions.html#ResearchStudy.label .</t>
   </si>
   <si>
     <t>element:Element</t>
@@ -1538,7 +1538,7 @@
 </t>
   </si>
   <si>
-    <t>autres titres et acronyme / Additional names for the study</t>
+    <t xml:space="preserve">autres titres et acronyme / Additional names for the study. Implémentation de lélément label de R5 </t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8111" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8111" uniqueCount="784">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:23:44+00:00</t>
+    <t>2023-10-31T17:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -824,7 +824,7 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai. Cette extension implemente l'élément label de R5 https://hl7.org/fhir/researchstudy-definitions.html#ResearchStudy.label .</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>Extension.extension:type</t>
@@ -1416,9 +1416,6 @@
   </si>
   <si>
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de la période prévisionnelle de recrutement l'essai</t>
-  </si>
-  <si>
-    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>eclaire-researchstudy</t>
@@ -3910,7 +3907,7 @@
         <v>38</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>451</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175">
@@ -3926,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177">
@@ -3934,7 +3931,7 @@
         <v>4</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178">
@@ -3950,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180">
@@ -4010,7 +4007,7 @@
         <v>22</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188">
@@ -4046,7 +4043,7 @@
         <v>30</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="193">
@@ -4054,7 +4051,7 @@
         <v>32</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194">
@@ -4086,7 +4083,7 @@
         <v>2</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198">
@@ -4094,7 +4091,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="199">
@@ -4110,7 +4107,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="201">
@@ -4170,7 +4167,7 @@
         <v>22</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="209">
@@ -4238,7 +4235,7 @@
         <v>38</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>451</v>
+        <v>258</v>
       </c>
     </row>
     <row r="218">
@@ -4254,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="220">
@@ -4262,7 +4259,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="221">
@@ -4278,7 +4275,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="223">
@@ -4338,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="231">
@@ -4406,7 +4403,7 @@
         <v>38</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>451</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240">
@@ -4430,7 +4427,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="243">
@@ -4446,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="245">
@@ -4574,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="262">
@@ -4590,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="264">
@@ -4598,7 +4595,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="265">
@@ -4614,7 +4611,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="267">
@@ -4674,7 +4671,7 @@
         <v>22</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275">
@@ -4742,7 +4739,7 @@
         <v>38</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>451</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -17260,17 +17257,17 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" t="s" s="2">
@@ -17292,13 +17289,13 @@
         <v>43</v>
       </c>
       <c r="M120" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="N120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -17348,7 +17345,7 @@
         <v>40</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>41</v>
@@ -17365,13 +17362,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -17470,13 +17467,13 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -17573,13 +17570,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -17678,13 +17675,13 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -17783,13 +17780,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -17888,13 +17885,13 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -17993,13 +17990,13 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -18098,16 +18095,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B128" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D128" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="C128" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="D128" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="E128" t="s" s="2">
         <v>40</v>
@@ -18129,13 +18126,13 @@
         <v>40</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -18203,16 +18200,16 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B129" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D129" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="C129" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="D129" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="E129" t="s" s="2">
         <v>40</v>
@@ -18234,13 +18231,13 @@
         <v>40</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -18308,13 +18305,13 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>447</v>
@@ -18339,10 +18336,10 @@
         <v>40</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N130" t="s" s="2">
         <v>450</v>
@@ -18413,16 +18410,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B131" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D131" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="E131" t="s" s="2">
         <v>40</v>
@@ -18444,13 +18441,13 @@
         <v>40</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -18518,13 +18515,13 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>254</v>
@@ -18549,13 +18546,13 @@
         <v>40</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M132" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -18623,13 +18620,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -18730,13 +18727,13 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -18762,14 +18759,14 @@
         <v>148</v>
       </c>
       <c r="M134" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N134" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q134" t="s" s="2">
         <v>40</v>
@@ -18806,10 +18803,10 @@
         <v>40</v>
       </c>
       <c r="AC134" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AD134" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AE134" t="s" s="2">
         <v>40</v>
@@ -18818,7 +18815,7 @@
         <v>57</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>41</v>
@@ -18835,16 +18832,16 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B135" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D135" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="E135" t="s" s="2">
         <v>40</v>
@@ -18869,14 +18866,14 @@
         <v>148</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q135" t="s" s="2">
         <v>40</v>
@@ -18925,7 +18922,7 @@
         <v>40</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>41</v>
@@ -18942,13 +18939,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -19045,13 +19042,13 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -19150,13 +19147,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19182,16 +19179,16 @@
         <v>114</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="O138" t="s" s="2">
+      <c r="P138" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>40</v>
@@ -19201,7 +19198,7 @@
         <v>40</v>
       </c>
       <c r="T138" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="U138" t="s" s="2">
         <v>40</v>
@@ -19219,28 +19216,28 @@
         <v>83</v>
       </c>
       <c r="Z138" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA138" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AA138" t="s" s="2">
+      <c r="AB138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG138" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>41</v>
@@ -19257,13 +19254,13 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19289,16 +19286,16 @@
         <v>82</v>
       </c>
       <c r="M139" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="O139" t="s" s="2">
+      <c r="P139" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>40</v>
@@ -19326,28 +19323,28 @@
         <v>212</v>
       </c>
       <c r="Z139" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA139" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA139" t="s" s="2">
+      <c r="AB139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG139" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>41</v>
@@ -19364,13 +19361,13 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19396,16 +19393,16 @@
         <v>60</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="O140" t="s" s="2">
+      <c r="P140" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>40</v>
@@ -19418,43 +19415,43 @@
         <v>40</v>
       </c>
       <c r="U140" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG140" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>41</v>
@@ -19471,13 +19468,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19503,13 +19500,13 @@
         <v>48</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
@@ -19523,43 +19520,43 @@
         <v>40</v>
       </c>
       <c r="U141" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG141" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>41</v>
@@ -19576,13 +19573,13 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="C142" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19608,10 +19605,10 @@
         <v>227</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>230</v>
@@ -19664,7 +19661,7 @@
         <v>40</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>41</v>
@@ -19681,13 +19678,13 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19713,13 +19710,13 @@
         <v>407</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
@@ -19769,7 +19766,7 @@
         <v>40</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>41</v>
@@ -19786,16 +19783,16 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B144" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="D144" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="C144" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="E144" t="s" s="2">
         <v>40</v>
@@ -19820,14 +19817,14 @@
         <v>148</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q144" t="s" s="2">
         <v>40</v>
@@ -19876,7 +19873,7 @@
         <v>40</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>41</v>
@@ -19893,13 +19890,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19996,13 +19993,13 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -20101,13 +20098,13 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -20133,16 +20130,16 @@
         <v>114</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="N147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="O147" t="s" s="2">
+      <c r="P147" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>40</v>
@@ -20152,7 +20149,7 @@
         <v>40</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>40</v>
@@ -20170,28 +20167,28 @@
         <v>83</v>
       </c>
       <c r="Z147" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA147" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AA147" t="s" s="2">
+      <c r="AB147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG147" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>41</v>
@@ -20208,13 +20205,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20240,16 +20237,16 @@
         <v>82</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="O148" t="s" s="2">
+      <c r="P148" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>40</v>
@@ -20277,28 +20274,28 @@
         <v>212</v>
       </c>
       <c r="Z148" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AA148" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA148" t="s" s="2">
+      <c r="AB148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG148" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>41</v>
@@ -20315,13 +20312,13 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20347,16 +20344,16 @@
         <v>60</v>
       </c>
       <c r="M149" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="O149" t="s" s="2">
+      <c r="P149" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>40</v>
@@ -20369,43 +20366,43 @@
         <v>40</v>
       </c>
       <c r="U149" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG149" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>41</v>
@@ -20422,13 +20419,13 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20454,13 +20451,13 @@
         <v>48</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
@@ -20474,43 +20471,43 @@
         <v>40</v>
       </c>
       <c r="U150" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG150" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>41</v>
@@ -20527,13 +20524,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20559,10 +20556,10 @@
         <v>227</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>230</v>
@@ -20615,7 +20612,7 @@
         <v>40</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>41</v>
@@ -20632,13 +20629,13 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20664,13 +20661,13 @@
         <v>407</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -20720,7 +20717,7 @@
         <v>40</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>41</v>
@@ -20737,13 +20734,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20769,10 +20766,10 @@
         <v>48</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>179</v>
@@ -20825,7 +20822,7 @@
         <v>40</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>41</v>
@@ -20842,13 +20839,13 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20871,13 +20868,13 @@
         <v>97</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>243</v>
@@ -20930,7 +20927,7 @@
         <v>40</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>41</v>
@@ -20947,17 +20944,17 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
@@ -20976,19 +20973,19 @@
         <v>97</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>243</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>40</v>
@@ -21037,7 +21034,7 @@
         <v>40</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>41</v>
@@ -21054,13 +21051,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -21086,10 +21083,10 @@
         <v>114</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>179</v>
@@ -21121,11 +21118,11 @@
         <v>83</v>
       </c>
       <c r="Z156" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AA156" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="AA156" t="s" s="2">
-        <v>579</v>
-      </c>
       <c r="AB156" t="s" s="2">
         <v>40</v>
       </c>
@@ -21142,7 +21139,7 @@
         <v>40</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>47</v>
@@ -21159,13 +21156,13 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21191,10 +21188,10 @@
         <v>82</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>210</v>
@@ -21226,11 +21223,11 @@
         <v>212</v>
       </c>
       <c r="Z157" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AA157" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AA157" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AB157" t="s" s="2">
         <v>40</v>
       </c>
@@ -21247,7 +21244,7 @@
         <v>40</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>41</v>
@@ -21264,13 +21261,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21296,10 +21293,10 @@
         <v>82</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>210</v>
@@ -21332,7 +21329,7 @@
       </c>
       <c r="Z158" s="2"/>
       <c r="AA158" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>40</v>
@@ -21350,7 +21347,7 @@
         <v>40</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>41</v>
@@ -21367,13 +21364,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21399,10 +21396,10 @@
         <v>82</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>210</v>
@@ -21435,7 +21432,7 @@
       </c>
       <c r="Z159" s="2"/>
       <c r="AA159" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>40</v>
@@ -21453,7 +21450,7 @@
         <v>40</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>41</v>
@@ -21470,13 +21467,13 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21502,10 +21499,10 @@
         <v>82</v>
       </c>
       <c r="M160" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>210</v>
@@ -21537,7 +21534,7 @@
         <v>174</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>40</v>
@@ -21558,7 +21555,7 @@
         <v>40</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>41</v>
@@ -21575,13 +21572,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21607,10 +21604,10 @@
         <v>82</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>210</v>
@@ -21642,19 +21639,19 @@
         <v>174</v>
       </c>
       <c r="Z161" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AA161" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AA161" t="s" s="2">
+      <c r="AB161" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD161" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AE161" t="s" s="2">
         <v>40</v>
@@ -21663,7 +21660,7 @@
         <v>57</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>41</v>
@@ -21680,16 +21677,16 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="D162" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="E162" t="s" s="2">
         <v>40</v>
@@ -21714,10 +21711,10 @@
         <v>82</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>210</v>
@@ -21749,11 +21746,11 @@
         <v>174</v>
       </c>
       <c r="Z162" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AA162" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AA162" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AB162" t="s" s="2">
         <v>40</v>
       </c>
@@ -21770,7 +21767,7 @@
         <v>40</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>41</v>
@@ -21787,13 +21784,13 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21834,7 +21831,7 @@
         <v>40</v>
       </c>
       <c r="T163" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="U163" t="s" s="2">
         <v>40</v>
@@ -21890,13 +21887,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B164" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C164" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21995,13 +21992,13 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -22027,16 +22024,16 @@
         <v>305</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="O165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>40</v>
@@ -22085,7 +22082,7 @@
         <v>40</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>41</v>
@@ -22102,13 +22099,13 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B166" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C166" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -22205,13 +22202,13 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
@@ -22310,13 +22307,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B168" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C168" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22342,16 +22339,16 @@
         <v>60</v>
       </c>
       <c r="M168" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="N168" t="s" s="2">
+      <c r="O168" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="O168" t="s" s="2">
+      <c r="P168" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="P168" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>40</v>
@@ -22361,46 +22358,46 @@
         <v>40</v>
       </c>
       <c r="T168" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="U168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF168" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG168" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="U168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF168" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG168" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>41</v>
@@ -22417,13 +22414,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
@@ -22449,13 +22446,13 @@
         <v>48</v>
       </c>
       <c r="M169" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N169" t="s" s="2">
         <v>632</v>
       </c>
-      <c r="N169" t="s" s="2">
+      <c r="O169" t="s" s="2">
         <v>633</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
@@ -22505,7 +22502,7 @@
         <v>40</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>41</v>
@@ -22522,13 +22519,13 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B170" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C170" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22554,16 +22551,16 @@
         <v>114</v>
       </c>
       <c r="M170" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N170" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>179</v>
       </c>
       <c r="P170" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q170" t="s" s="2">
         <v>40</v>
@@ -22612,7 +22609,7 @@
         <v>40</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>41</v>
@@ -22629,13 +22626,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22661,16 +22658,16 @@
         <v>48</v>
       </c>
       <c r="M171" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="N171" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>179</v>
       </c>
       <c r="P171" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>40</v>
@@ -22719,7 +22716,7 @@
         <v>40</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>41</v>
@@ -22736,13 +22733,13 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B172" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C172" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="C172" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22768,16 +22765,16 @@
         <v>153</v>
       </c>
       <c r="M172" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N172" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="O172" t="s" s="2">
+      <c r="P172" t="s" s="2">
         <v>652</v>
-      </c>
-      <c r="P172" t="s" s="2">
-        <v>653</v>
       </c>
       <c r="Q172" t="s" s="2">
         <v>40</v>
@@ -22826,7 +22823,7 @@
         <v>40</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>41</v>
@@ -22843,13 +22840,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B173" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C173" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22875,16 +22872,16 @@
         <v>48</v>
       </c>
       <c r="M173" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N173" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="N173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="O173" t="s" s="2">
+      <c r="P173" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="P173" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="Q173" t="s" s="2">
         <v>40</v>
@@ -22933,7 +22930,7 @@
         <v>40</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>41</v>
@@ -22950,16 +22947,16 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B174" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="D174" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="D174" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="E174" t="s" s="2">
         <v>40</v>
@@ -22984,10 +22981,10 @@
         <v>82</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>210</v>
@@ -23019,11 +23016,11 @@
         <v>174</v>
       </c>
       <c r="Z174" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AA174" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AA174" t="s" s="2">
-        <v>601</v>
-      </c>
       <c r="AB174" t="s" s="2">
         <v>40</v>
       </c>
@@ -23040,7 +23037,7 @@
         <v>40</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>41</v>
@@ -23057,13 +23054,13 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
@@ -23104,7 +23101,7 @@
         <v>40</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>40</v>
@@ -23160,13 +23157,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -23265,13 +23262,13 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
@@ -23297,16 +23294,16 @@
         <v>305</v>
       </c>
       <c r="M177" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N177" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="N177" t="s" s="2">
+      <c r="O177" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="O177" t="s" s="2">
+      <c r="P177" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="Q177" t="s" s="2">
         <v>40</v>
@@ -23355,7 +23352,7 @@
         <v>40</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>41</v>
@@ -23372,13 +23369,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23404,16 +23401,16 @@
         <v>48</v>
       </c>
       <c r="M178" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N178" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="N178" t="s" s="2">
+      <c r="O178" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="O178" t="s" s="2">
+      <c r="P178" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="P178" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="Q178" t="s" s="2">
         <v>40</v>
@@ -23462,7 +23459,7 @@
         <v>40</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>41</v>
@@ -23479,13 +23476,13 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23508,13 +23505,13 @@
         <v>97</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M179" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -23565,7 +23562,7 @@
         <v>40</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>41</v>
@@ -23582,13 +23579,13 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23685,13 +23682,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
@@ -23790,13 +23787,13 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D182" t="s" s="2">
         <v>78</v>
@@ -23821,10 +23818,10 @@
         <v>40</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>678</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>81</v>
@@ -23895,13 +23892,13 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D183" t="s" s="2">
         <v>3</v>
@@ -23926,10 +23923,10 @@
         <v>40</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="N183" t="s" s="2">
         <v>23</v>
@@ -24000,13 +23997,13 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D184" t="s" s="2">
         <v>69</v>
@@ -24031,10 +24028,10 @@
         <v>40</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M184" t="s" s="2">
         <v>683</v>
-      </c>
-      <c r="M184" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="N184" t="s" s="2">
         <v>72</v>
@@ -24105,13 +24102,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>73</v>
@@ -24136,10 +24133,10 @@
         <v>40</v>
       </c>
       <c r="L185" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N185" t="s" s="2">
         <v>76</v>
@@ -24210,13 +24207,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24242,13 +24239,13 @@
         <v>48</v>
       </c>
       <c r="M186" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N186" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="N186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>691</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
@@ -24298,7 +24295,7 @@
         <v>40</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>41</v>
@@ -24315,13 +24312,13 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24347,10 +24344,10 @@
         <v>335</v>
       </c>
       <c r="M187" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -24401,7 +24398,7 @@
         <v>40</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>41</v>
@@ -24418,13 +24415,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24447,16 +24444,16 @@
         <v>40</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="N188" t="s" s="2">
+      <c r="O188" t="s" s="2">
         <v>700</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>701</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
@@ -24506,7 +24503,7 @@
         <v>40</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>41</v>
@@ -24523,13 +24520,13 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24555,10 +24552,10 @@
         <v>82</v>
       </c>
       <c r="M189" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N189" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>210</v>
@@ -24590,7 +24587,7 @@
         <v>174</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>40</v>
@@ -24611,7 +24608,7 @@
         <v>40</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>41</v>
@@ -24628,13 +24625,13 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24660,10 +24657,10 @@
         <v>82</v>
       </c>
       <c r="M190" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="N190" t="s" s="2">
         <v>707</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>708</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>210</v>
@@ -24695,11 +24692,11 @@
         <v>212</v>
       </c>
       <c r="Z190" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AA190" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="AA190" t="s" s="2">
-        <v>710</v>
-      </c>
       <c r="AB190" t="s" s="2">
         <v>40</v>
       </c>
@@ -24716,7 +24713,7 @@
         <v>40</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>41</v>
@@ -24733,13 +24730,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24762,16 +24759,16 @@
         <v>40</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="N191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
@@ -24821,7 +24818,7 @@
         <v>40</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>41</v>
@@ -24838,17 +24835,17 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
@@ -24867,16 +24864,16 @@
         <v>97</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="N192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
@@ -24926,7 +24923,7 @@
         <v>40</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>41</v>
@@ -24943,17 +24940,17 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" t="s" s="2">
@@ -24975,10 +24972,10 @@
         <v>227</v>
       </c>
       <c r="M193" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="N193" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>230</v>
@@ -25031,7 +25028,7 @@
         <v>40</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>41</v>
@@ -25048,13 +25045,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
@@ -25080,10 +25077,10 @@
         <v>407</v>
       </c>
       <c r="M194" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="N194" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>728</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>243</v>
@@ -25136,7 +25133,7 @@
         <v>40</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>41</v>
@@ -25153,13 +25150,13 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
@@ -25182,13 +25179,13 @@
         <v>97</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="M195" t="s" s="2">
         <v>730</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="N195" t="s" s="2">
         <v>731</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>732</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>243</v>
@@ -25241,7 +25238,7 @@
         <v>40</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>41</v>
@@ -25258,13 +25255,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25290,10 +25287,10 @@
         <v>413</v>
       </c>
       <c r="M196" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>243</v>
@@ -25346,7 +25343,7 @@
         <v>40</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>41</v>
@@ -25363,13 +25360,13 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25395,10 +25392,10 @@
         <v>82</v>
       </c>
       <c r="M197" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N197" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>210</v>
@@ -25430,11 +25427,11 @@
         <v>174</v>
       </c>
       <c r="Z197" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="AA197" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="AA197" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="AB197" t="s" s="2">
         <v>40</v>
       </c>
@@ -25451,7 +25448,7 @@
         <v>40</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>41</v>
@@ -25468,13 +25465,13 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25497,16 +25494,16 @@
         <v>40</v>
       </c>
       <c r="L198" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M198" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="N198" t="s" s="2">
+      <c r="O198" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25556,7 +25553,7 @@
         <v>40</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>41</v>
@@ -25573,13 +25570,13 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25605,10 +25602,10 @@
         <v>194</v>
       </c>
       <c r="M199" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="N199" t="s" s="2">
         <v>747</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>748</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -25659,7 +25656,7 @@
         <v>40</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>41</v>
@@ -25676,13 +25673,13 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25779,13 +25776,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25884,13 +25881,13 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25991,13 +25988,13 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26023,10 +26020,10 @@
         <v>48</v>
       </c>
       <c r="M203" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="N203" t="s" s="2">
         <v>753</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>754</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>179</v>
@@ -26079,7 +26076,7 @@
         <v>40</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>47</v>
@@ -26096,13 +26093,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26128,10 +26125,10 @@
         <v>82</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>210</v>
@@ -26184,7 +26181,7 @@
         <v>40</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>41</v>
@@ -26201,13 +26198,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26233,10 +26230,10 @@
         <v>48</v>
       </c>
       <c r="M205" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N205" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>179</v>
@@ -26289,7 +26286,7 @@
         <v>40</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>41</v>
@@ -26306,13 +26303,13 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26338,10 +26335,10 @@
         <v>194</v>
       </c>
       <c r="M206" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="N206" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -26392,7 +26389,7 @@
         <v>40</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>41</v>
@@ -26409,13 +26406,13 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26512,13 +26509,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26617,13 +26614,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26724,13 +26721,13 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26756,10 +26753,10 @@
         <v>48</v>
       </c>
       <c r="M210" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="N210" t="s" s="2">
         <v>768</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>769</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>179</v>
@@ -26812,7 +26809,7 @@
         <v>40</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>41</v>
@@ -26829,13 +26826,13 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26861,10 +26858,10 @@
         <v>82</v>
       </c>
       <c r="M211" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="N211" t="s" s="2">
         <v>771</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>772</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>210</v>
@@ -26896,11 +26893,11 @@
         <v>118</v>
       </c>
       <c r="Z211" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="AA211" t="s" s="2">
         <v>773</v>
       </c>
-      <c r="AA211" t="s" s="2">
-        <v>774</v>
-      </c>
       <c r="AB211" t="s" s="2">
         <v>40</v>
       </c>
@@ -26917,7 +26914,7 @@
         <v>40</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>41</v>
@@ -26934,7 +26931,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>31</v>
@@ -26969,7 +26966,7 @@
         <v>31</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -27037,7 +27034,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>46</v>
@@ -27140,7 +27137,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>52</v>
@@ -27243,7 +27240,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>59</v>
@@ -27289,7 +27286,7 @@
       </c>
       <c r="R215" s="2"/>
       <c r="S215" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T215" t="s" s="2">
         <v>40</v>
@@ -27348,7 +27345,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>64</v>
@@ -27377,7 +27374,7 @@
         <v>40</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M216" t="s" s="2">
         <v>66</v>
@@ -27451,7 +27448,7 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>31</v>
@@ -27486,7 +27483,7 @@
         <v>31</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -27554,7 +27551,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>46</v>
@@ -27657,7 +27654,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>52</v>
@@ -27760,7 +27757,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>59</v>
@@ -27806,7 +27803,7 @@
       </c>
       <c r="R220" s="2"/>
       <c r="S220" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>40</v>
@@ -27865,7 +27862,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>64</v>
@@ -28323,7 +28320,7 @@
       </c>
       <c r="R225" s="2"/>
       <c r="S225" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="T225" t="s" s="2">
         <v>40</v>
@@ -28485,7 +28482,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>31</v>
@@ -28520,7 +28517,7 @@
         <v>31</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
@@ -28588,7 +28585,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>46</v>
@@ -28691,7 +28688,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>52</v>
@@ -28794,7 +28791,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>59</v>
@@ -28840,7 +28837,7 @@
       </c>
       <c r="R230" s="2"/>
       <c r="S230" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="T230" t="s" s="2">
         <v>40</v>
@@ -28899,7 +28896,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>64</v>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:39:37+00:00</t>
+    <t>2023-10-31T17:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1535,7 +1535,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">autres titres et acronyme / Additional names for the study. Implémentation de lélément label de R5 </t>
+    <t>autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
@@ -1878,8 +1878,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t xml:space="preserve">Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
-Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre. </t>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
+Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre.</t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition</t>
